--- a/Excel/OutputData.xlsx
+++ b/Excel/OutputData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="129">
   <si>
     <t>Course1</t>
   </si>
@@ -417,6 +417,15 @@
   </si>
   <si>
     <t>Mixed (149)</t>
+  </si>
+  <si>
+    <t>English (1,647)</t>
+  </si>
+  <si>
+    <t>Beginner (885)</t>
+  </si>
+  <si>
+    <t>Intermediate (781)</t>
   </si>
 </sst>
 </file>
@@ -817,23 +826,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>27</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>29</v>
@@ -841,85 +850,85 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>109</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>112</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>113</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s" s="0">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s" s="0">
-        <v>116</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s" s="0">
-        <v>117</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s" s="0">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s" s="0">
-        <v>119</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s" s="0">
-        <v>120</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s" s="0">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s" s="0">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s" s="0">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
